--- a/result/with_base/124/arousal/s12_8.xlsx
+++ b/result/with_base/124/arousal/s12_8.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8199999928474426</v>
+        <v>0.7957589328289032</v>
       </c>
       <c r="C2" t="n">
-        <v>41720.24609375</v>
+        <v>11293.92138671875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8506818196990273</v>
+        <v>0.8460477941176471</v>
       </c>
       <c r="E2" t="n">
-        <v>41719.32208806818</v>
+        <v>11290.13959099265</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.867499977350235</v>
+        <v>0.7834821343421936</v>
       </c>
       <c r="C3" t="n">
-        <v>40934.486328125</v>
+        <v>10983.89453125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.878636360168457</v>
+        <v>0.8663340351160835</v>
       </c>
       <c r="E3" t="n">
-        <v>40935.23650568182</v>
+        <v>10979.86420036765</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8325892984867096</v>
       </c>
       <c r="C4" t="n">
-        <v>40154.021484375</v>
+        <v>10677.162109375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.913863637230613</v>
+        <v>0.8821559863931993</v>
       </c>
       <c r="E4" t="n">
-        <v>40154.31214488636</v>
+        <v>10676.16251148897</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8849999904632568</v>
+        <v>0.8292410671710968</v>
       </c>
       <c r="C5" t="n">
-        <v>39391.099609375</v>
+        <v>10383.82275390625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9189772714268077</v>
+        <v>0.8914128156269298</v>
       </c>
       <c r="E5" t="n">
-        <v>39389.21484375</v>
+        <v>10381.28825827206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8700000047683716</v>
+        <v>0.8331473171710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38635.365234375</v>
+        <v>10094.92333984375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9344318238171664</v>
+        <v>0.9166885509210474</v>
       </c>
       <c r="E6" t="n">
-        <v>38633.76065340909</v>
+        <v>10092.22822840074</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8381696343421936</v>
       </c>
       <c r="C7" t="n">
-        <v>37892.11328125</v>
+        <v>9813.0830078125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9588636268268932</v>
+        <v>0.9166885509210474</v>
       </c>
       <c r="E7" t="n">
-        <v>37890.99573863636</v>
+        <v>9810.208984375</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8774999976158142</v>
+        <v>0.8337053656578064</v>
       </c>
       <c r="C8" t="n">
-        <v>37164.072265625</v>
+        <v>9537.6875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9460227164355192</v>
+        <v>0.9323135509210474</v>
       </c>
       <c r="E8" t="n">
-        <v>37162.24183238636</v>
+        <v>9534.673598345587</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.8370535671710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36445.58203125</v>
+        <v>9268.21923828125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9586363705721769</v>
+        <v>0.9468224784907173</v>
       </c>
       <c r="E9" t="n">
-        <v>36444.32741477273</v>
+        <v>9265.794806985294</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.8498883843421936</v>
       </c>
       <c r="C10" t="n">
-        <v>35742</v>
+        <v>9005.8173828125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9568181850693442</v>
+        <v>0.9541097704102012</v>
       </c>
       <c r="E10" t="n">
-        <v>35740.26988636364</v>
+        <v>9003.562729779413</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.8699776828289032</v>
       </c>
       <c r="C11" t="n">
-        <v>35049.35546875</v>
+        <v>8749.81005859375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9665909138592806</v>
+        <v>0.9521402295897988</v>
       </c>
       <c r="E11" t="n">
-        <v>35047.72762784091</v>
+        <v>8748.101447610294</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8582589328289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34370.14453125</v>
+        <v>8501.53173828125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9648863619024103</v>
+        <v>0.9491859253715066</v>
       </c>
       <c r="E12" t="n">
-        <v>34368.21235795454</v>
+        <v>8499.106789981617</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8415178656578064</v>
       </c>
       <c r="C13" t="n">
-        <v>33702.46875</v>
+        <v>8257.9873046875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9756818251176314</v>
+        <v>0.9596244762925541</v>
       </c>
       <c r="E13" t="n">
-        <v>33700.73295454546</v>
+        <v>8256.172506893383</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.86328125</v>
       </c>
       <c r="C14" t="n">
-        <v>33046.845703125</v>
+        <v>8021.6767578125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9809090982783925</v>
+        <v>0.9657300430185655</v>
       </c>
       <c r="E14" t="n">
-        <v>33045.57670454546</v>
+        <v>8019.655991498162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.925000011920929</v>
+        <v>0.8498883843421936</v>
       </c>
       <c r="C15" t="n">
-        <v>32403.91015625</v>
+        <v>7791.305419921875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9756818251176314</v>
+        <v>0.9671087194891537</v>
       </c>
       <c r="E15" t="n">
-        <v>32402.47123579546</v>
+        <v>7789.225959329044</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.8621651828289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31772.130859375</v>
+        <v>7566.647705078125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9875000065023248</v>
+        <v>0.9614627115866717</v>
       </c>
       <c r="E16" t="n">
-        <v>31770.63884943182</v>
+        <v>7564.797334558823</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9175000190734863</v>
+        <v>0.8415178656578064</v>
       </c>
       <c r="C17" t="n">
-        <v>31153.5625</v>
+        <v>7348.323486328125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9730681885372509</v>
+        <v>0.9526654411764706</v>
       </c>
       <c r="E17" t="n">
-        <v>31150.90696022727</v>
+        <v>7346.29385914522</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8571428656578064</v>
       </c>
       <c r="C18" t="n">
-        <v>30543.724609375</v>
+        <v>7135.35205078125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9846591028300199</v>
+        <v>0.9609375</v>
       </c>
       <c r="E18" t="n">
-        <v>30542.00763494318</v>
+        <v>7133.360006893382</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.8671875</v>
       </c>
       <c r="C19" t="n">
-        <v>29945.509765625</v>
+        <v>6927.6142578125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9717699569814345</v>
       </c>
       <c r="E19" t="n">
-        <v>29944.49751420454</v>
+        <v>6925.943388097427</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.8828125</v>
       </c>
       <c r="C20" t="n">
-        <v>29359.1279296875</v>
+        <v>6725.53759765625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9791228981579051</v>
       </c>
       <c r="E20" t="n">
-        <v>29358.048828125</v>
+        <v>6724.046817555147</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.8671875</v>
       </c>
       <c r="C21" t="n">
-        <v>28784.4404296875</v>
+        <v>6529.158203125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9756818305362355</v>
+        <v>0.9741334038622239</v>
       </c>
       <c r="E21" t="n">
-        <v>28782.81818181818</v>
+        <v>6527.544605928309</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.8627232015132904</v>
       </c>
       <c r="C22" t="n">
-        <v>28218.60546875</v>
+        <v>6337.614013671875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9789259468807894</v>
       </c>
       <c r="E22" t="n">
-        <v>28217.587890625</v>
+        <v>6336.254423253677</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.925000011920929</v>
+        <v>0.8660714328289032</v>
       </c>
       <c r="C23" t="n">
-        <v>27665.1728515625</v>
+        <v>6151.458740234375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9844318303194913</v>
+        <v>0.9759716391563416</v>
       </c>
       <c r="E23" t="n">
-        <v>27663.23916903409</v>
+        <v>6150.064826516544</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.8571428656578064</v>
       </c>
       <c r="C24" t="n">
-        <v>27120.2216796875</v>
+        <v>5970.5361328125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9592305667260114</v>
       </c>
       <c r="E24" t="n">
-        <v>27118.95472301136</v>
+        <v>5968.986672794118</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.8694196343421936</v>
       </c>
       <c r="C25" t="n">
-        <v>26587.2626953125</v>
+        <v>5793.56494140625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9881818294525146</v>
+        <v>0.9841780452167287</v>
       </c>
       <c r="E25" t="n">
-        <v>26585.00852272727</v>
+        <v>5792.473259420956</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8822544515132904</v>
       </c>
       <c r="C26" t="n">
-        <v>26062.7607421875</v>
+        <v>5621.864013671875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9755777295897988</v>
       </c>
       <c r="E26" t="n">
-        <v>26060.80983664773</v>
+        <v>5620.9619140625</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.8794642984867096</v>
       </c>
       <c r="C27" t="n">
-        <v>25547.8740234375</v>
+        <v>5455.119873046875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9796481097445768</v>
       </c>
       <c r="E27" t="n">
-        <v>25546.43998579546</v>
+        <v>5454.02352366728</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.8582589328289032</v>
       </c>
       <c r="C28" t="n">
-        <v>25043.1923828125</v>
+        <v>5292.9072265625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9788602941176471</v>
       </c>
       <c r="E28" t="n">
-        <v>25041.64115767046</v>
+        <v>5291.613712086397</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.925000011920929</v>
+        <v>0.8822544515132904</v>
       </c>
       <c r="C29" t="n">
-        <v>24547.7900390625</v>
+        <v>5134.61083984375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9737394942956812</v>
       </c>
       <c r="E29" t="n">
-        <v>24546.28693181818</v>
+        <v>5133.630170036765</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.875</v>
       </c>
       <c r="C30" t="n">
-        <v>24062.3916015625</v>
+        <v>4980.919921875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9887500080195341</v>
+        <v>0.9805015746284934</v>
       </c>
       <c r="E30" t="n">
-        <v>24060.29456676136</v>
+        <v>4979.89705882353</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.8543526828289032</v>
       </c>
       <c r="C31" t="n">
-        <v>23584.6357421875</v>
+        <v>4831.603759765625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9711134468807894</v>
       </c>
       <c r="E31" t="n">
-        <v>23583.20241477273</v>
+        <v>4830.433450137868</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8872767984867096</v>
       </c>
       <c r="C32" t="n">
-        <v>23117.046875</v>
+        <v>4685.79541015625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9850971628637875</v>
       </c>
       <c r="E32" t="n">
-        <v>23115.19140625</v>
+        <v>4684.94717945772</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.87890625</v>
       </c>
       <c r="C33" t="n">
-        <v>22657.5166015625</v>
+        <v>4544.369873046875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9923863681879911</v>
+        <v>0.9824054626857534</v>
       </c>
       <c r="E33" t="n">
-        <v>22655.83078835227</v>
+        <v>4543.52587890625</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.8828125</v>
       </c>
       <c r="C34" t="n">
-        <v>22206.9716796875</v>
+        <v>4406.896484375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9740677510990816</v>
       </c>
       <c r="E34" t="n">
-        <v>22205.09801136364</v>
+        <v>4406.032513786765</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.8409598171710968</v>
       </c>
       <c r="C35" t="n">
-        <v>21764.244140625</v>
+        <v>4273.865966796875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.941110817825093</v>
       </c>
       <c r="E35" t="n">
-        <v>21762.80308948864</v>
+        <v>4272.508013556985</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8688616156578064</v>
       </c>
       <c r="C36" t="n">
-        <v>21329.9853515625</v>
+        <v>4143.02587890625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9792542001780342</v>
       </c>
       <c r="E36" t="n">
-        <v>21328.80983664773</v>
+        <v>4142.236155790441</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.8861607015132904</v>
       </c>
       <c r="C37" t="n">
-        <v>20903.931640625</v>
+        <v>4016.342651367188</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9848345588235294</v>
       </c>
       <c r="E37" t="n">
-        <v>20902.94673295454</v>
+        <v>4015.753432329963</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8833705484867096</v>
       </c>
       <c r="C38" t="n">
-        <v>20486.037109375</v>
+        <v>3893.53857421875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E38" t="n">
-        <v>20485.14701704546</v>
+        <v>3892.803438074448</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.949999988079071</v>
+        <v>0.8861607015132904</v>
       </c>
       <c r="C39" t="n">
-        <v>20075.8916015625</v>
+        <v>3773.94775390625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9818802510990816</v>
       </c>
       <c r="E39" t="n">
-        <v>20075.16850142046</v>
+        <v>3773.294203814338</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9375</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C40" t="n">
-        <v>19674.1728515625</v>
+        <v>3657.7021484375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9936363697052002</v>
+        <v>0.9808298314318937</v>
       </c>
       <c r="E40" t="n">
-        <v>19672.97283380682</v>
+        <v>3657.114272173713</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.87890625</v>
       </c>
       <c r="C41" t="n">
-        <v>19279.162109375</v>
+        <v>3544.797119140625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.987854515804964</v>
       </c>
       <c r="E41" t="n">
-        <v>19278.26846590909</v>
+        <v>3544.161376953125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.8582589328289032</v>
       </c>
       <c r="C42" t="n">
-        <v>18891.931640625</v>
+        <v>3435.460327148438</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9563419117647058</v>
       </c>
       <c r="E42" t="n">
-        <v>18891.03036221591</v>
+        <v>3434.532815372243</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9034598171710968</v>
       </c>
       <c r="C43" t="n">
-        <v>18511.7216796875</v>
+        <v>3328.224853515625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9879201685681063</v>
       </c>
       <c r="E43" t="n">
-        <v>18511.04616477273</v>
+        <v>3327.70658605239</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9375</v>
+        <v>0.88671875</v>
       </c>
       <c r="C44" t="n">
-        <v>18139.4833984375</v>
+        <v>3224.578247070312</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9776785724303302</v>
       </c>
       <c r="E44" t="n">
-        <v>18138.27290482954</v>
+        <v>3224.054084329044</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8911830484867096</v>
       </c>
       <c r="C45" t="n">
-        <v>17773.44140625</v>
+        <v>3123.88330078125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E45" t="n">
-        <v>17772.50355113636</v>
+        <v>3123.27925379136</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.8839285671710968</v>
       </c>
       <c r="C46" t="n">
-        <v>17415.294921875</v>
+        <v>3026.09912109375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9773503156269298</v>
       </c>
       <c r="E46" t="n">
-        <v>17413.70756392046</v>
+        <v>3025.411017922794</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.8917410671710968</v>
       </c>
       <c r="C47" t="n">
-        <v>17062.9853515625</v>
+        <v>2930.787963867188</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9820115531192106</v>
       </c>
       <c r="E47" t="n">
-        <v>17061.61292613636</v>
+        <v>2930.275606043198</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.8989955484867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16717.404296875</v>
+        <v>2838.326904296875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9679621843730702</v>
       </c>
       <c r="E48" t="n">
-        <v>16716.21875</v>
+        <v>2837.915828929228</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.925000011920929</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C49" t="n">
-        <v>16378.66259765625</v>
+        <v>2748.492553710938</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.984375</v>
       </c>
       <c r="E49" t="n">
-        <v>16377.32164417614</v>
+        <v>2748.119341681985</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8973214328289032</v>
       </c>
       <c r="C50" t="n">
-        <v>16045.955078125</v>
+        <v>2661.498046875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9751838235294118</v>
       </c>
       <c r="E50" t="n">
-        <v>16044.88742897727</v>
+        <v>2660.951157513787</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,861 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C51" t="n">
-        <v>15719.61572265625</v>
+        <v>2576.759521484375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9726890746284934</v>
       </c>
       <c r="E51" t="n">
-        <v>15718.72327769886</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.925000011920929</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15400.06591796875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9906818270683289</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15398.814453125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15085.76318359375</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15084.8720703125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9200000166893005</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14778.46826171875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9936363697052002</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14776.95694247159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14476.01220703125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9970454573631287</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14474.83433948864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.925000011920929</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14179.77685546875</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14178.50736860795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9025000035762787</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13888.8662109375</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13887.79660866477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.8850000202655792</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13603.7978515625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13602.63210227273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13323.60791015625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13322.89026988636</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9275000095367432</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13049.6455078125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.990340915593234</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13048.55903764205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12779.96044921875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12779.34161931818</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9249999821186066</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12516.08642578125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12515.33212002841</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12257.05615234375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12256.37286931818</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9025000035762787</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12003.119140625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12002.34730113636</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11754.02392578125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11753.19779829545</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9124999940395355</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11509.7587890625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11508.84810014205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9074999988079071</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11270.0107421875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11269.162109375</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9174999892711639</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11034.896484375</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11034.10209517045</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.925000011920929</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10804.22412109375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10803.58638139205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.8975000083446503</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10578.23291015625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10577.51127485795</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9050000011920929</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10356.43701171875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10355.78018465909</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9224999845027924</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10139.0458984375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10138.32608309659</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9925.69091796875</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9925.068714488636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9716.44921875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9715.935990767046</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9511.27001953125</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9510.864080255682</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9225000143051147</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9310.3828125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9309.780717329546</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9325000047683716</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9113.04931640625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9112.58407315341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8919.83837890625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8919.244495738636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8730.18017578125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9921590956774625</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8729.666459517046</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8544.2744140625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8543.771218039772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8362.02197265625</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8361.514115767046</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1956521739130435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6739130434782609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.005154639175257732</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6739130434782609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.005154639175257732</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03608247422680412</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03608247422680412</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9130434782608695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.04639175257731959</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9130434782608695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.04639175257731959</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1288659793814433</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1288659793814433</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9782608695652174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2474226804123711</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9782608695652174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2474226804123711</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9831913939937248</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.02173913043478261</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8556701030927835</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8711340206185567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8917525773195877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9536082474226805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9536082474226805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9639175257731959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9639175257731959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9948453608247423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.3260869565217391</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9948453608247423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.3260869565217391</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9759636934110265</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>2576.272877412684</v>
       </c>
     </row>
   </sheetData>
